--- a/va_facility_data_2025-02-20/Wilmington VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wilmington%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wilmington VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Wilmington%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb66b67fb2a7a4320adf92d8f28499e16"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rf885befc12434670ba9b87f096b2b68a"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R31901027dcb444c0844f274c2e99bee4"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Red0e29c96ffd4bc4b94c466cecbc21ed"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6c31e6473d7e461f8a218171fb677371"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R070c5d22712947b5b4289fccc86ecb11"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rfbbd51ed87284bc0a68e1480773fa550"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Reaa4b504f9b24e9abc3d6ff933181c1c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb63773e2e6294fe4901d1c15aac403f5"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R517604f11e9d48bd98a19846553d054d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf1df496ff299490385fd1897fcdd7c03"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re8d90ba968c24287b6822934ed5ce3ef"/>
   </x:sheets>
 </x:workbook>
 </file>
